--- a/Repository/person/杨慧/软件工程雪梨任务04-用户故事描述.xlsx
+++ b/Repository/person/杨慧/软件工程雪梨任务04-用户故事描述.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\software-project-homework\Repository\person\杨慧\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9591758-03EA-4548-AFC3-195ECEF6F175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT BACKLOG" sheetId="1" r:id="rId1"/>
     <sheet name="USER MODEL" sheetId="2" r:id="rId2"/>
+    <sheet name="PROJECT VISION" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>Project BackLog ——“亲逢”实训项目（Java与移动智能设备开发方向）</t>
   </si>
@@ -213,19 +220,121 @@
   </si>
   <si>
     <t>运营者</t>
+  </si>
+  <si>
+    <t>如何演示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击用户登录按钮后，点击QQ登录、微信登录、微博登录等几种方式都能成功登录系统。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Vision</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲逢</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造线上寻亲平台，帮助社会各类人士进行寻亲活动。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击大厅页面，看到滚动的最新寻人信息。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击首页中的寻人方法，看到发布寻人和获取相关信息的方法。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击个人中心按钮，直接看到自己发布过的寻人信息。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击应用首页页面，点击政策法规按钮后看到相关的政策法规条目。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击流浪救助页面，浏览到所有发布的寻亲信息。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击真情留言页面，点击输入框输入自己的留言，点击发布正确在留言列表中发布。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击发布寻人信息后，在信息框中输入自己的个人联系方式。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击应用首页页面，点击模糊搜索框，输入想要搜索的信息之后展示出自己想要查找的信息。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击个人中心按钮，点击个人发布的信息按钮对自己想要修改的寻亲信息。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击登录，点击个人中心按钮，点击个人发布的信息按钮对自己想要撤销的寻亲信息。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击聊天室按钮，在其中与其他寻亲者和志愿者进行交流。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在手机页面出现应用对应的消息推送，点击后进入应用里的对应页面。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录微博，可以在微博推送消息中浏览到寻亲成功的相关事例。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击寻人页面，填写寻亲信息时将丢失亲人的信息尽量填写完备。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击首页页面，在搜索栏中填写相关的信息，点击搜索按钮，搜索出自己感兴趣的相关信息。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击个人中心，寻亲成功后在自己的寻亲信息后填写自己的寻亲感受和评价</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击首页页面，点击自己感兴趣的寻亲消息进行收藏。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击个人中心按钮，点击个人收藏夹，可以查看自己收藏过的寻亲信息。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，点击首页页面，点击线索留言，选择对应寻亲信息，点击留言编辑框，对其进行线索留言。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,7 +346,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="22"/>
@@ -289,146 +397,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -436,11 +407,28 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,192 +449,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -693,257 +501,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -961,9 +525,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -973,62 +534,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1286,75 +816,79 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:XFD22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.2166666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.2166666666667" customWidth="1"/>
-    <col min="4" max="4" width="62.2166666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.4416666666667" customWidth="1"/>
-    <col min="6" max="6" width="8.775" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="62.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="39" customHeight="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="26.4" customHeight="1" spans="1:9">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:9">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="J2" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
@@ -1363,27 +897,30 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="15">
-        <v>2</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="G3" s="12">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12">
         <v>96</v>
       </c>
-      <c r="I3" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:9">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="I3" s="12">
+        <v>2</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
@@ -1392,27 +929,30 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="15">
-        <v>2</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="G4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="12">
         <v>94</v>
       </c>
-      <c r="I4" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:9">
-      <c r="A5" s="15">
+      <c r="I4" s="12">
+        <v>2</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -1421,27 +961,30 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
         <v>93</v>
       </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="42.75" spans="1:9">
-      <c r="A6" s="15">
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
@@ -1450,27 +993,30 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="15">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
         <v>91</v>
       </c>
-      <c r="I6" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="43" customHeight="1" spans="1:9">
-      <c r="A7" s="15">
+      <c r="I6" s="12">
+        <v>2</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
@@ -1479,27 +1025,30 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
         <v>90</v>
       </c>
-      <c r="I7" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:9">
-      <c r="A8" s="15">
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
@@ -1508,27 +1057,30 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
         <v>88</v>
       </c>
-      <c r="I8" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:9">
-      <c r="A9" s="15">
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
@@ -1537,27 +1089,30 @@
       <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>3</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="12">
         <v>87</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" ht="32" customHeight="1" spans="1:9">
-      <c r="A10" s="15">
+      <c r="J9" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s">
@@ -1566,27 +1121,30 @@
       <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="15">
-        <v>2</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="G10" s="12">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12">
         <v>86</v>
       </c>
-      <c r="I10" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="42.75" spans="1:9">
-      <c r="A11" s="15">
+      <c r="I10" s="12">
+        <v>2</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
@@ -1595,27 +1153,30 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="15">
-        <v>2</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="G11" s="12">
+        <v>2</v>
+      </c>
+      <c r="H11" s="12">
         <v>80</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:9">
-      <c r="A12" s="15">
-        <v>10</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="J11" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E12" t="s">
@@ -1624,27 +1185,30 @@
       <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
         <v>75</v>
       </c>
-      <c r="I12" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:9">
-      <c r="A13" s="15">
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E13" t="s">
@@ -1653,27 +1217,30 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="15">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15">
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
         <v>72</v>
       </c>
-      <c r="I13" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:9">
-      <c r="A14" s="15">
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E14" t="s">
@@ -1682,27 +1249,30 @@
       <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="12">
         <v>3</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="12">
         <v>70</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:9">
-      <c r="A15" s="15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="J14" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E15" t="s">
@@ -1711,27 +1281,30 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="15">
-        <v>2</v>
-      </c>
-      <c r="H15" s="15">
+      <c r="G15" s="12">
+        <v>2</v>
+      </c>
+      <c r="H15" s="12">
         <v>62</v>
       </c>
-      <c r="I15" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:9">
-      <c r="A16" s="15">
-        <v>14</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="I15" s="12">
+        <v>2</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
@@ -1740,27 +1313,30 @@
       <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="15">
-        <v>2</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="G16" s="12">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12">
         <v>58</v>
       </c>
-      <c r="I16" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" ht="57" spans="1:9">
-      <c r="A17" s="15">
+      <c r="I16" s="12">
+        <v>2</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E17" t="s">
@@ -1769,27 +1345,30 @@
       <c r="F17" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15">
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12">
         <v>56</v>
       </c>
-      <c r="I17" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="42.6" customHeight="1" spans="1:9">
-      <c r="A18" s="15">
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E18" t="s">
@@ -1798,27 +1377,30 @@
       <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="15">
-        <v>2</v>
-      </c>
-      <c r="H18" s="15">
+      <c r="G18" s="12">
+        <v>2</v>
+      </c>
+      <c r="H18" s="12">
         <v>53</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" ht="42.6" customHeight="1" spans="1:9">
-      <c r="A19" s="15">
+      <c r="J18" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E19" t="s">
@@ -1827,27 +1409,30 @@
       <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="15">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15">
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
         <v>50</v>
       </c>
-      <c r="I19" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="29.4" customHeight="1" spans="1:9">
-      <c r="A20" s="15">
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
@@ -1856,27 +1441,30 @@
       <c r="F20" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="15">
-        <v>2</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="G20" s="12">
+        <v>2</v>
+      </c>
+      <c r="H20" s="12">
         <v>45</v>
       </c>
-      <c r="I20" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" ht="40.8" customHeight="1" spans="1:9">
-      <c r="A21" s="15">
+      <c r="I20" s="12">
+        <v>2</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E21" t="s">
@@ -1885,27 +1473,30 @@
       <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="15">
-        <v>1</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
         <v>44</v>
       </c>
-      <c r="I21" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" ht="41.4" customHeight="1" spans="1:9">
-      <c r="A22" s="15">
+      <c r="I21" s="12">
+        <v>2</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E22" t="s">
@@ -1914,92 +1505,94 @@
       <c r="F22" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="15">
-        <v>1</v>
-      </c>
-      <c r="H22" s="15">
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
         <v>42</v>
       </c>
-      <c r="I22" s="15">
-        <v>1</v>
+      <c r="I22" s="12">
+        <v>1</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:XFD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="51.625" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="29" customHeight="1" spans="1:2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2007,7 +1600,56 @@
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C90A88-57BA-4D21-B6E4-9723ADCDBD94}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="21" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>